--- a/Docs/TestingScenarios.xlsx
+++ b/Docs/TestingScenarios.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\202\Project\CatchMeIfUCan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -96,13 +91,16 @@
   </si>
   <si>
     <t>Score should be displayed on scoreboard with rankings</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,26 +437,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,8 +482,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -493,8 +496,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -504,8 +510,11 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,8 +524,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -526,8 +538,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -537,8 +552,11 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -548,8 +566,11 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -559,8 +580,11 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -570,8 +594,11 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -581,8 +608,11 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -592,8 +622,11 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -603,8 +636,11 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -613,6 +649,9 @@
       </c>
       <c r="C14" t="s">
         <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
